--- a/src/main/java/com/test/qa/testdata/TestData.xlsx
+++ b/src/main/java/com/test/qa/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manish/Downloads/PageObjectModel-master/src/main/java/com/test/qa/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDF9EE7-A53A-4B4B-9F12-214EE13CD923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DAD12C-4500-F845-A04A-F958A74F824E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,16 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Test Case Name</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>mptest497@gmail.com</t>
   </si>
@@ -49,16 +40,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -74,18 +57,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,12 +76,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -386,41 +362,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{AA037D41-590D-EA4B-BF51-B4B68E966B27}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{AA037D41-590D-EA4B-BF51-B4B68E966B27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/test/qa/testdata/TestData.xlsx
+++ b/src/main/java/com/test/qa/testdata/TestData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manish/Downloads/PageObjectModel-master/src/main/java/com/test/qa/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DAD12C-4500-F845-A04A-F958A74F824E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F457483-5D80-F747-9B40-E55FCB441663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="contacts" sheetId="1" r:id="rId1"/>
+    <sheet name="sheetName" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -373,13 +373,22 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/main/java/com/test/qa/testdata/TestData.xlsx
+++ b/src/main/java/com/test/qa/testdata/TestData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manish/Downloads/PageObjectModel-master/src/main/java/com/test/qa/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F457483-5D80-F747-9B40-E55FCB441663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C71997-488F-514C-B2C7-0860AE543F35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheetName" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -365,7 +365,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
